--- a/student_data.xlsx
+++ b/student_data.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rady.y\Desktop\transcript-test\Year 1\transcript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOTHIN.KE\Desktop\projects\ALGO\Auto generate documentatoin\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D859D085-D51B-4BFD-821C-839839F11063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transcript" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="class A only" guid="{B0EA3D3F-4C7D-4DEF-AEB6-C88A159A31D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Failed" guid="{ECE3D652-C0D2-4509-AAB5-1FCD05E59AC3}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Edouard" guid="{A64BAFD7-3748-4486-95DB-EC2AE09EE45D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Failed" guid="{ECE3D652-C0D2-4509-AAB5-1FCD05E59AC3}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="class A only" guid="{B0EA3D3F-4C7D-4DEF-AEB6-C88A159A31D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="54">
   <si>
     <t>Student Id</t>
   </si>
@@ -115,63 +116,6 @@
     <t>Internship</t>
   </si>
   <si>
-    <t>SOKHEANG</t>
-  </si>
-  <si>
-    <t>BOTH</t>
-  </si>
-  <si>
-    <t>SREY MOM</t>
-  </si>
-  <si>
-    <t>CHAK</t>
-  </si>
-  <si>
-    <t>VANNY</t>
-  </si>
-  <si>
-    <t>CHAN</t>
-  </si>
-  <si>
-    <t>PHANIT</t>
-  </si>
-  <si>
-    <t>CHEA</t>
-  </si>
-  <si>
-    <t>VICHHEKA</t>
-  </si>
-  <si>
-    <t>CHHEN</t>
-  </si>
-  <si>
-    <t>CHHINKEO</t>
-  </si>
-  <si>
-    <t>CHHOEUNH</t>
-  </si>
-  <si>
-    <t>VOTEY</t>
-  </si>
-  <si>
-    <t>CHHOEURN</t>
-  </si>
-  <si>
-    <t>CHANNY</t>
-  </si>
-  <si>
-    <t>CHHUN</t>
-  </si>
-  <si>
-    <t>SENGHAK</t>
-  </si>
-  <si>
-    <t>SEREYPUTHIREACH</t>
-  </si>
-  <si>
-    <t>CHIN</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -188,12 +132,72 @@
   </si>
   <si>
     <t>C+</t>
+  </si>
+  <si>
+    <t>SOTHIN</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>DINA</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>KAKA</t>
+  </si>
+  <si>
+    <t>ENDRO</t>
+  </si>
+  <si>
+    <t>MESSI</t>
+  </si>
+  <si>
+    <t>LIO</t>
+  </si>
+  <si>
+    <t>MAYNAR</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>KATE</t>
+  </si>
+  <si>
+    <t>N'KLO</t>
+  </si>
+  <si>
+    <t>CHOMRERN</t>
+  </si>
+  <si>
+    <t>SONG</t>
+  </si>
+  <si>
+    <t>DANE</t>
+  </si>
+  <si>
+    <t>MIOK</t>
+  </si>
+  <si>
+    <t>NANG</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>JAME</t>
+  </si>
+  <si>
+    <t>BON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,325 +227,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -751,11 +442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -917,312 +608,312 @@
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2222</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="L2">
         <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N2">
         <v>62</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="P2">
         <v>61</v>
       </c>
       <c r="Q2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="R2">
         <v>80</v>
       </c>
       <c r="S2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="T2">
         <v>50</v>
       </c>
       <c r="U2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="V2">
         <v>61</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="X2">
         <v>73</v>
       </c>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Z2">
         <v>50</v>
       </c>
       <c r="AA2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AB2">
         <v>62</v>
       </c>
       <c r="AC2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AD2">
         <v>61</v>
       </c>
       <c r="AE2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AF2">
         <v>62</v>
       </c>
       <c r="AG2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AH2">
         <v>73</v>
       </c>
       <c r="AI2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AJ2">
         <v>50</v>
       </c>
       <c r="AK2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AL2">
         <v>61</v>
       </c>
       <c r="AM2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AN2">
         <v>62</v>
       </c>
       <c r="AO2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AP2">
         <v>50</v>
       </c>
       <c r="AQ2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AR2">
         <v>61</v>
       </c>
       <c r="AS2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AT2">
         <v>73</v>
       </c>
       <c r="AU2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AV2">
         <v>62</v>
       </c>
       <c r="AW2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AX2">
         <v>73</v>
       </c>
       <c r="AY2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3333</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="L3">
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N3">
         <v>50</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="P3">
         <v>50</v>
       </c>
       <c r="Q3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="R3">
         <v>60</v>
       </c>
       <c r="S3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="T3">
         <v>67</v>
       </c>
       <c r="U3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="V3">
         <v>50</v>
       </c>
       <c r="W3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="X3">
         <v>60</v>
       </c>
       <c r="Y3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="Z3">
         <v>67</v>
       </c>
       <c r="AA3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="AB3">
         <v>50</v>
       </c>
       <c r="AC3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AD3">
         <v>50</v>
       </c>
       <c r="AE3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AF3">
         <v>50</v>
       </c>
       <c r="AG3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AH3">
         <v>60</v>
       </c>
       <c r="AI3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AJ3">
         <v>67</v>
       </c>
       <c r="AK3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="AL3">
         <v>50</v>
       </c>
       <c r="AM3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AN3">
         <v>50</v>
       </c>
       <c r="AO3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AP3">
         <v>67</v>
       </c>
       <c r="AQ3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="AR3">
         <v>50</v>
       </c>
       <c r="AS3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AT3">
         <v>60</v>
       </c>
       <c r="AU3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AV3">
         <v>50</v>
       </c>
       <c r="AW3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AX3">
         <v>60</v>
       </c>
       <c r="AY3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.3">
@@ -1230,154 +921,154 @@
         <v>555</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F4">
         <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="J4">
         <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="L4">
         <v>73</v>
       </c>
       <c r="M4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="P4">
         <v>70</v>
       </c>
       <c r="Q4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="R4">
         <v>78</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="T4">
         <v>89</v>
       </c>
       <c r="U4" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="V4">
         <v>70</v>
       </c>
       <c r="W4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="X4">
         <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Z4">
         <v>89</v>
       </c>
       <c r="AA4" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AB4">
         <v>73</v>
       </c>
       <c r="AC4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AD4">
         <v>70</v>
       </c>
       <c r="AE4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AF4">
         <v>73</v>
       </c>
       <c r="AG4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AH4">
         <v>74</v>
       </c>
       <c r="AI4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AJ4">
         <v>89</v>
       </c>
       <c r="AK4" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AL4">
         <v>70</v>
       </c>
       <c r="AM4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AN4">
         <v>73</v>
       </c>
       <c r="AO4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AP4">
         <v>89</v>
       </c>
       <c r="AQ4" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AR4">
         <v>70</v>
       </c>
       <c r="AS4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AT4">
         <v>74</v>
       </c>
       <c r="AU4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AV4">
         <v>73</v>
       </c>
       <c r="AW4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AX4">
         <v>74</v>
       </c>
       <c r="AY4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.3">
@@ -1385,154 +1076,154 @@
         <v>444</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J5">
         <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="L5">
         <v>80</v>
       </c>
       <c r="M5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N5">
         <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="P5">
         <v>66</v>
       </c>
       <c r="Q5" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="R5">
         <v>90</v>
       </c>
       <c r="S5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="T5">
         <v>76</v>
       </c>
       <c r="U5" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="V5">
         <v>66</v>
       </c>
       <c r="W5" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="X5">
         <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="Z5">
         <v>76</v>
       </c>
       <c r="AA5" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AB5">
         <v>80</v>
       </c>
       <c r="AC5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AD5">
         <v>66</v>
       </c>
       <c r="AE5" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="AF5">
         <v>80</v>
       </c>
       <c r="AG5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AH5">
         <v>82</v>
       </c>
       <c r="AI5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AJ5">
         <v>76</v>
       </c>
       <c r="AK5" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AL5">
         <v>66</v>
       </c>
       <c r="AM5" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="AN5">
         <v>80</v>
       </c>
       <c r="AO5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AP5">
         <v>76</v>
       </c>
       <c r="AQ5" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AR5">
         <v>66</v>
       </c>
       <c r="AS5" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="AT5">
         <v>82</v>
       </c>
       <c r="AU5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AV5">
         <v>80</v>
       </c>
       <c r="AW5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AX5">
         <v>82</v>
       </c>
       <c r="AY5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.3">
@@ -1540,154 +1231,154 @@
         <v>666</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>74</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J6">
         <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="L6">
         <v>85</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N6">
         <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="P6">
         <v>72</v>
       </c>
       <c r="Q6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="R6">
         <v>66</v>
       </c>
       <c r="S6" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="T6">
         <v>66</v>
       </c>
       <c r="U6" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="V6">
         <v>72</v>
       </c>
       <c r="W6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="X6">
         <v>78</v>
       </c>
       <c r="Y6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Z6">
         <v>66</v>
       </c>
       <c r="AA6" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="AB6">
         <v>85</v>
       </c>
       <c r="AC6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AD6">
         <v>72</v>
       </c>
       <c r="AE6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AF6">
         <v>85</v>
       </c>
       <c r="AG6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AH6">
         <v>78</v>
       </c>
       <c r="AI6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AJ6">
         <v>66</v>
       </c>
       <c r="AK6" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="AL6">
         <v>72</v>
       </c>
       <c r="AM6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AN6">
         <v>85</v>
       </c>
       <c r="AO6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AP6">
         <v>66</v>
       </c>
       <c r="AQ6" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="AR6">
         <v>72</v>
       </c>
       <c r="AS6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AT6">
         <v>78</v>
       </c>
       <c r="AU6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AV6">
         <v>85</v>
       </c>
       <c r="AW6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AX6">
         <v>78</v>
       </c>
       <c r="AY6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.3">
@@ -1695,154 +1386,154 @@
         <v>888</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J7">
         <v>72</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="L7">
         <v>83</v>
       </c>
       <c r="M7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="P7">
         <v>72</v>
       </c>
       <c r="Q7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="R7">
         <v>65</v>
       </c>
       <c r="S7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="T7">
         <v>72</v>
       </c>
       <c r="U7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="V7">
         <v>72</v>
       </c>
       <c r="W7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="X7">
         <v>72</v>
       </c>
       <c r="Y7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Z7">
         <v>72</v>
       </c>
       <c r="AA7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AB7">
         <v>83</v>
       </c>
       <c r="AC7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AD7">
         <v>72</v>
       </c>
       <c r="AE7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AF7">
         <v>83</v>
       </c>
       <c r="AG7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AH7">
         <v>72</v>
       </c>
       <c r="AI7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AJ7">
         <v>72</v>
       </c>
       <c r="AK7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AL7">
         <v>72</v>
       </c>
       <c r="AM7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AN7">
         <v>83</v>
       </c>
       <c r="AO7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AP7">
         <v>72</v>
       </c>
       <c r="AQ7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AR7">
         <v>72</v>
       </c>
       <c r="AS7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AT7">
         <v>72</v>
       </c>
       <c r="AU7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AV7">
         <v>83</v>
       </c>
       <c r="AW7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AX7">
         <v>72</v>
       </c>
       <c r="AY7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.3">
@@ -1850,154 +1541,154 @@
         <v>999</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F8">
         <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J8">
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="L8">
         <v>58</v>
       </c>
       <c r="M8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>58</v>
       </c>
       <c r="O8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="P8">
         <v>50</v>
       </c>
       <c r="Q8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="R8">
         <v>50</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="T8">
         <v>72</v>
       </c>
       <c r="U8" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="V8">
         <v>50</v>
       </c>
       <c r="W8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="X8">
         <v>58</v>
       </c>
       <c r="Y8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="Z8">
         <v>72</v>
       </c>
       <c r="AA8" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AB8">
         <v>58</v>
       </c>
       <c r="AC8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AD8">
         <v>50</v>
       </c>
       <c r="AE8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AF8">
         <v>58</v>
       </c>
       <c r="AG8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AH8">
         <v>58</v>
       </c>
       <c r="AI8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AJ8">
         <v>72</v>
       </c>
       <c r="AK8" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AL8">
         <v>50</v>
       </c>
       <c r="AM8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AN8">
         <v>58</v>
       </c>
       <c r="AO8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AP8">
         <v>72</v>
       </c>
       <c r="AQ8" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AR8">
         <v>50</v>
       </c>
       <c r="AS8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AT8">
         <v>58</v>
       </c>
       <c r="AU8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AV8">
         <v>58</v>
       </c>
       <c r="AW8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="AX8">
         <v>58</v>
       </c>
       <c r="AY8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.3">
@@ -2005,154 +1696,154 @@
         <v>1212</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F9">
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="J9">
         <v>91</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="L9">
         <v>70</v>
       </c>
       <c r="M9" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>70</v>
       </c>
       <c r="O9" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="P9">
         <v>62</v>
       </c>
       <c r="Q9" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="R9">
         <v>67</v>
       </c>
       <c r="S9" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="T9">
         <v>66</v>
       </c>
       <c r="U9" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="V9">
         <v>62</v>
       </c>
       <c r="W9" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="X9">
         <v>91</v>
       </c>
       <c r="Y9" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="Z9">
         <v>66</v>
       </c>
       <c r="AA9" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="AB9">
         <v>70</v>
       </c>
       <c r="AC9" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AD9">
         <v>62</v>
       </c>
       <c r="AE9" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AF9">
         <v>70</v>
       </c>
       <c r="AG9" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AH9">
         <v>91</v>
       </c>
       <c r="AI9" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AJ9">
         <v>66</v>
       </c>
       <c r="AK9" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="AL9">
         <v>62</v>
       </c>
       <c r="AM9" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AN9">
         <v>70</v>
       </c>
       <c r="AO9" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AP9">
         <v>66</v>
       </c>
       <c r="AQ9" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="AR9">
         <v>62</v>
       </c>
       <c r="AS9" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AT9">
         <v>91</v>
       </c>
       <c r="AU9" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AV9">
         <v>70</v>
       </c>
       <c r="AW9" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AX9">
         <v>91</v>
       </c>
       <c r="AY9" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.3">
@@ -2160,154 +1851,154 @@
         <v>2345</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F10">
         <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J10">
         <v>73</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="L10">
         <v>85</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>85</v>
       </c>
       <c r="O10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="P10">
         <v>87</v>
       </c>
       <c r="Q10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="R10">
         <v>89</v>
       </c>
       <c r="S10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="T10">
         <v>72</v>
       </c>
       <c r="U10" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="V10">
         <v>87</v>
       </c>
       <c r="W10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="X10">
         <v>73</v>
       </c>
       <c r="Y10" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Z10">
         <v>72</v>
       </c>
       <c r="AA10" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AB10">
         <v>85</v>
       </c>
       <c r="AC10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AD10">
         <v>87</v>
       </c>
       <c r="AE10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AF10">
         <v>85</v>
       </c>
       <c r="AG10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AH10">
         <v>73</v>
       </c>
       <c r="AI10" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AJ10">
         <v>72</v>
       </c>
       <c r="AK10" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AL10">
         <v>87</v>
       </c>
       <c r="AM10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AN10">
         <v>85</v>
       </c>
       <c r="AO10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AP10">
         <v>72</v>
       </c>
       <c r="AQ10" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AR10">
         <v>87</v>
       </c>
       <c r="AS10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AT10">
         <v>73</v>
       </c>
       <c r="AU10" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AV10">
         <v>85</v>
       </c>
       <c r="AW10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AX10">
         <v>73</v>
       </c>
       <c r="AY10" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.3">
@@ -2315,154 +2006,154 @@
         <v>1234</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F11">
         <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J11">
         <v>76</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="L11">
         <v>81</v>
       </c>
       <c r="M11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>81</v>
       </c>
       <c r="O11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="P11">
         <v>86</v>
       </c>
       <c r="Q11" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="R11">
         <v>76</v>
       </c>
       <c r="S11" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="T11">
         <v>72</v>
       </c>
       <c r="U11" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="V11">
         <v>86</v>
       </c>
       <c r="W11" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="X11">
         <v>76</v>
       </c>
       <c r="Y11" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Z11">
         <v>72</v>
       </c>
       <c r="AA11" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AB11">
         <v>81</v>
       </c>
       <c r="AC11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AD11">
         <v>86</v>
       </c>
       <c r="AE11" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AF11">
         <v>81</v>
       </c>
       <c r="AG11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AH11">
         <v>76</v>
       </c>
       <c r="AI11" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AJ11">
         <v>72</v>
       </c>
       <c r="AK11" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AL11">
         <v>86</v>
       </c>
       <c r="AM11" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AN11">
         <v>81</v>
       </c>
       <c r="AO11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AP11">
         <v>72</v>
       </c>
       <c r="AQ11" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AR11">
         <v>86</v>
       </c>
       <c r="AS11" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="AT11">
         <v>76</v>
       </c>
       <c r="AU11" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="AV11">
         <v>81</v>
       </c>
       <c r="AW11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AX11">
         <v>76</v>
       </c>
       <c r="AY11" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
